--- a/output/baks_example_output.xlsx
+++ b/output/baks_example_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikevanrhene/Desktop/Baks/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikevoeten/Desktop/NewBaks/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744011D1-BFF7-7443-B70B-902F8760B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8DBF75-7DBC-0E48-B1AE-5045AB907236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anomalies" sheetId="1" r:id="rId1"/>
@@ -2826,7 +2826,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2949,7 +2949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2958,7 +2958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3267,7 +3267,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.2"/>
